--- a/Descriptive Statistics/Categorical/Crisis_summary.xlsx
+++ b/Descriptive Statistics/Categorical/Crisis_summary.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C2" t="n">
-        <v>70.86</v>
+        <v>70.23</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" t="n">
-        <v>29.14</v>
+        <v>29.77</v>
       </c>
     </row>
   </sheetData>

--- a/Descriptive Statistics/Categorical/Crisis_summary.xlsx
+++ b/Descriptive Statistics/Categorical/Crisis_summary.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C2" t="n">
-        <v>70.23</v>
+        <v>70.23999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C3" t="n">
-        <v>29.77</v>
+        <v>29.76</v>
       </c>
     </row>
   </sheetData>
